--- a/Graficos.xlsx
+++ b/Graficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5840e6104a64f6ae/Documentos/GitHub/TC01-IA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F9E7515-C76B-49CB-A3DE-0EED38E81DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{3F9E7515-C76B-49CB-A3DE-0EED38E81DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7FEDD94-FD72-40C0-9519-EEE74D0AED1C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8117FA0C-FFC2-4D3D-9162-BEE88D9E108C}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8117FA0C-FFC2-4D3D-9162-BEE88D9E108C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>55.81</t>
+  </si>
+  <si>
+    <t>Cantidad de movimientos</t>
+  </si>
+  <si>
+    <t>Caso</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +71,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +126,2100 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Análisis de cantidad de movimientos A*</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad de movimientos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D265-478C-A1C6-B1889D9A3021}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1300549152"/>
+        <c:axId val="1300553952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1300549152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Caso</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1300553952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1300553952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Medidas tomadas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1300549152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Análisis de tiempo de ejecución A*</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4BC9-4257-8B59-DC9EDDBE7F4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1300549152"/>
+        <c:axId val="1300553952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1300549152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Caso</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1300553952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1300553952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Medidas tomadas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1300549152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B9D5296-BD07-79D1-E22C-CD1D0FE7836B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C1E212-5BE9-4798-A325-E7EF3B679954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +2539,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB311D1-3F60-4D26-83E1-693EB902A2BA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Graficos.xlsx
+++ b/Graficos.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5840e6104a64f6ae/Documentos/GitHub/TC01-IA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ede1172f85451874/Escritorio/IA/TC01-IA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{3F9E7515-C76B-49CB-A3DE-0EED38E81DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7FEDD94-FD72-40C0-9519-EEE74D0AED1C}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{3F9E7515-C76B-49CB-A3DE-0EED38E81DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14F92E36-B02D-4EA3-AC08-8B9159C98C97}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8117FA0C-FFC2-4D3D-9162-BEE88D9E108C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8117FA0C-FFC2-4D3D-9162-BEE88D9E108C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,21 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Tiempo</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>2.76</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>55.81</t>
   </si>
   <si>
     <t>Cantidad de movimientos</t>
@@ -106,11 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,16 +685,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>98.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,6 +703,888 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4BC9-4257-8B59-DC9EDDBE7F4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1300549152"/>
+        <c:axId val="1300553952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1300549152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Caso</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1300553952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1300553952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Medidas tomadas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1300549152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Análisis de cantidad de movimientos A*</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad de movimientos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$2:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D39-447D-B889-52CCB6F99B7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1300549152"/>
+        <c:axId val="1300553952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1300549152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Caso</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1300553952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1300553952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Medidas tomadas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1300549152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Análisis de tiempo de ejecución A*</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$2:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B666-4D3F-BED8-6BB97DC653D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1111,6 +1980,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1628,6 +2577,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2214,6 +4195,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>771180</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>156072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>569939</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156072</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235E274F-816A-477C-9184-79F56CAE7371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>778800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>82947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>577559</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>82947</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13939A04-ACDF-4DF3-B419-99981CE3AEC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2539,73 +4596,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB311D1-3F60-4D26-83E1-693EB902A2BA}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2">
+        <v>0.12</v>
       </c>
       <c r="C2">
         <v>31</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0.25</v>
+      </c>
+      <c r="L2">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3">
+        <v>5.36</v>
       </c>
       <c r="C3">
         <v>25</v>
       </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2.76</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4">
+        <v>1.1499999999999999</v>
       </c>
       <c r="C4">
         <v>27</v>
       </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>0.66</v>
+      </c>
+      <c r="L4">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B5">
+        <v>98.65</v>
       </c>
       <c r="C5">
         <v>27</v>
       </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>55.81</v>
+      </c>
+      <c r="L5">
+        <v>27</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
     </row>
   </sheetData>
